--- a/data/trans_orig/P70C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>178181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>168104</v>
+        <v>167274</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>186025</v>
+        <v>186147</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8906743531470086</v>
+        <v>0.8906743531470085</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8402990307384278</v>
+        <v>0.8361522448174813</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.929885548759299</v>
+        <v>0.9304911235232325</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>215</v>
@@ -762,19 +762,19 @@
         <v>128876</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>120849</v>
+        <v>121473</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>134273</v>
+        <v>135423</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8519085186603752</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7988467264153117</v>
+        <v>0.8029709202560412</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8875865503096682</v>
+        <v>0.8951869122065237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>392</v>
@@ -783,19 +783,19 @@
         <v>307057</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>295140</v>
+        <v>293716</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>316886</v>
+        <v>317181</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8739822448003828</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8400614794486083</v>
+        <v>0.8360086459996504</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9019587159656351</v>
+        <v>0.9027987793589202</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>11403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5378</v>
+        <v>5617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20308</v>
+        <v>19530</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05699839652822306</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02688084088619919</v>
+        <v>0.02807611366637265</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1015136925027349</v>
+        <v>0.09762495103850513</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -833,19 +833,19 @@
         <v>8598</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4954</v>
+        <v>4656</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14318</v>
+        <v>14115</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05683693054894583</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03274430496531101</v>
+        <v>0.03077666975742186</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09464845317450953</v>
+        <v>0.09330354485955823</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -854,19 +854,19 @@
         <v>20001</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13122</v>
+        <v>12323</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29564</v>
+        <v>30058</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05692887119345131</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0373507450740197</v>
+        <v>0.03507529161417976</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08414886321451479</v>
+        <v>0.08555558730569771</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>2560</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6954</v>
+        <v>6935</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01279555503919815</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004115879997403002</v>
+        <v>0.004097692333784301</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0347627838632048</v>
+        <v>0.03466372371329206</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -904,19 +904,19 @@
         <v>7570</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4182</v>
+        <v>4008</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12175</v>
+        <v>12234</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05003937910281855</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02764363813945825</v>
+        <v>0.02649510507111274</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08048031282895284</v>
+        <v>0.08087150494972969</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -925,19 +925,19 @@
         <v>10130</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5734</v>
+        <v>6167</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15911</v>
+        <v>15704</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02883230375737614</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01631992895866897</v>
+        <v>0.0175538035458658</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04528774808567199</v>
+        <v>0.04469945348558148</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>7908</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4029</v>
+        <v>3383</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14432</v>
+        <v>14990</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03953169528557023</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02013824657588443</v>
+        <v>0.01691230639863165</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07214291105212335</v>
+        <v>0.07493066621911992</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -975,19 +975,19 @@
         <v>5767</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3010</v>
+        <v>2709</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10958</v>
+        <v>10408</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03811991517666106</v>
+        <v>0.03811991517666107</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0198976560800171</v>
+        <v>0.01790522077644182</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07243862986220768</v>
+        <v>0.06879844910883225</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -996,19 +996,19 @@
         <v>13675</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8503</v>
+        <v>8458</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21061</v>
+        <v>22681</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03892379952241703</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02420200255258481</v>
+        <v>0.02407388000403302</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05994542746051124</v>
+        <v>0.06455841644132376</v>
       </c>
     </row>
     <row r="8">
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2730</v>
+        <v>1941</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.003095256511199491</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01804435620359779</v>
+        <v>0.0128329413969071</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2350</v>
+        <v>2364</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00133278072637274</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.006688272030525076</v>
+        <v>0.006729134436161457</v>
       </c>
     </row>
     <row r="9">
@@ -1210,19 +1210,19 @@
         <v>112470</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92549</v>
+        <v>92683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132256</v>
+        <v>132870</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4449686324796097</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3661552936046099</v>
+        <v>0.3666825393319957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5232462837473643</v>
+        <v>0.5256760733949486</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -1231,19 +1231,19 @@
         <v>73762</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>61539</v>
+        <v>61441</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>85604</v>
+        <v>85650</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4255135175713043</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3549982835334244</v>
+        <v>0.3544369962950535</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.493822267648646</v>
+        <v>0.4940874738056073</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>172</v>
@@ -1252,19 +1252,19 @@
         <v>186232</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>161742</v>
+        <v>164280</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>208819</v>
+        <v>210458</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4370539446864219</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3795799982356388</v>
+        <v>0.3855364026588282</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4900612930936937</v>
+        <v>0.4939085956358374</v>
       </c>
     </row>
     <row r="12">
@@ -1281,19 +1281,19 @@
         <v>34014</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21082</v>
+        <v>22745</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50090</v>
+        <v>50478</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1345705365816684</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08340748144098455</v>
+        <v>0.08998818814042286</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1981739034023959</v>
+        <v>0.19970746235815</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -1302,19 +1302,19 @@
         <v>25117</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18021</v>
+        <v>17768</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35852</v>
+        <v>35772</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1448950215679797</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1039584651023312</v>
+        <v>0.1024962369119355</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2068192717180738</v>
+        <v>0.2063573113481021</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>51</v>
@@ -1323,19 +1323,19 @@
         <v>59131</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42001</v>
+        <v>43577</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>75863</v>
+        <v>79403</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1387707212465877</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09856902686181532</v>
+        <v>0.1022672408258907</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1780380078270843</v>
+        <v>0.1863451337574465</v>
       </c>
     </row>
     <row r="13">
@@ -1352,19 +1352,19 @@
         <v>36471</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22892</v>
+        <v>22808</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54887</v>
+        <v>54230</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1442916124291012</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09056858595054684</v>
+        <v>0.09023528189028712</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2171501654779436</v>
+        <v>0.2145514758741591</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1373,19 +1373,19 @@
         <v>13206</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7884</v>
+        <v>7928</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20551</v>
+        <v>20358</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07618003639345959</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04548299741616547</v>
+        <v>0.04573394018557642</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1185515074801433</v>
+        <v>0.1174401008639209</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -1394,19 +1394,19 @@
         <v>49677</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35106</v>
+        <v>36227</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67308</v>
+        <v>68754</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1165826082949784</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0823884199963868</v>
+        <v>0.08501917947176876</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1579589031572947</v>
+        <v>0.1613530132113375</v>
       </c>
     </row>
     <row r="14">
@@ -1423,19 +1423,19 @@
         <v>50930</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35500</v>
+        <v>35593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70536</v>
+        <v>70676</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2014961810244347</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.140448439294234</v>
+        <v>0.1408184664380385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2790634013730516</v>
+        <v>0.2796181094047488</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -1444,19 +1444,19 @@
         <v>34791</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26179</v>
+        <v>26186</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46336</v>
+        <v>45643</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2006985462678344</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1510169968801829</v>
+        <v>0.1510581678106143</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2672993995199309</v>
+        <v>0.263303474570938</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>73</v>
@@ -1465,19 +1465,19 @@
         <v>85721</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>68255</v>
+        <v>69020</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>105836</v>
+        <v>108221</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2011716889769068</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1601816724895339</v>
+        <v>0.1619784339140641</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.248379451204176</v>
+        <v>0.2539762000627948</v>
       </c>
     </row>
     <row r="15">
@@ -1494,19 +1494,19 @@
         <v>12290</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5664</v>
+        <v>5560</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>22342</v>
+        <v>21599</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04862169824045489</v>
+        <v>0.0486216982404549</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02240820616439743</v>
+        <v>0.02199639034661354</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08839061988792084</v>
+        <v>0.08545453530866017</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>21</v>
@@ -1515,19 +1515,19 @@
         <v>18720</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11927</v>
+        <v>12121</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27475</v>
+        <v>28658</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1079901378647316</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06880301989820108</v>
+        <v>0.06992347105382488</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1584955900773411</v>
+        <v>0.1653171417006002</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>30</v>
@@ -1536,19 +1536,19 @@
         <v>31010</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>21779</v>
+        <v>21269</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>45218</v>
+        <v>43924</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.07277383851870488</v>
+        <v>0.07277383851870489</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05111095521835547</v>
+        <v>0.04991448873831105</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1061185897221539</v>
+        <v>0.1030810979984894</v>
       </c>
     </row>
     <row r="16">
@@ -1565,19 +1565,19 @@
         <v>6585</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2511</v>
+        <v>2505</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14374</v>
+        <v>14180</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02605133924473128</v>
+        <v>0.02605133924473129</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009934278428058404</v>
+        <v>0.009911322547308669</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05686899499387549</v>
+        <v>0.05610184318618829</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1586,19 +1586,19 @@
         <v>7753</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3772</v>
+        <v>3663</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14276</v>
+        <v>14889</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04472274033469028</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02175739384812343</v>
+        <v>0.02112803032018649</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08235636370726349</v>
+        <v>0.08589123494683805</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1607,19 +1607,19 @@
         <v>14337</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8092</v>
+        <v>8304</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23803</v>
+        <v>24277</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03364719827640032</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01899069447121482</v>
+        <v>0.01948845571134849</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05586047350347068</v>
+        <v>0.05697424241158939</v>
       </c>
     </row>
     <row r="17">
@@ -1711,19 +1711,19 @@
         <v>58590</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>46447</v>
+        <v>48092</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>69475</v>
+        <v>69864</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3950692665913312</v>
+        <v>0.3950692665913313</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3131893627185017</v>
+        <v>0.3242858553434448</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4684720097376943</v>
+        <v>0.4710917461056868</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>74</v>
@@ -1732,19 +1732,19 @@
         <v>58139</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48383</v>
+        <v>48658</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>67847</v>
+        <v>67095</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.483287958360202</v>
+        <v>0.4832879583602021</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4021860759622684</v>
+        <v>0.404475513138236</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5639882470024401</v>
+        <v>0.5577350497912174</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>133</v>
@@ -1753,19 +1753,19 @@
         <v>116729</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>102178</v>
+        <v>102438</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>131792</v>
+        <v>132904</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4345800121614317</v>
+        <v>0.4345800121614318</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3804082664870712</v>
+        <v>0.3813749555673526</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4906593552236991</v>
+        <v>0.4948003389537532</v>
       </c>
     </row>
     <row r="19">
@@ -1782,19 +1782,19 @@
         <v>32259</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22772</v>
+        <v>22477</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42779</v>
+        <v>42514</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2175210227466959</v>
+        <v>0.217521022746696</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1535540010203848</v>
+        <v>0.1515621881914789</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2884567062324677</v>
+        <v>0.2866722535438944</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -1803,19 +1803,19 @@
         <v>19990</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13724</v>
+        <v>13701</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27667</v>
+        <v>27992</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1661681563661536</v>
+        <v>0.1661681563661537</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1140794832937299</v>
+        <v>0.1138915233243522</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2299864941778668</v>
+        <v>0.2326838245991783</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -1824,19 +1824,19 @@
         <v>52249</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41158</v>
+        <v>40817</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65874</v>
+        <v>65767</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1945214747237799</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1532309567674546</v>
+        <v>0.1519608309713094</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2452466898396289</v>
+        <v>0.2448499908661914</v>
       </c>
     </row>
     <row r="20">
@@ -1853,19 +1853,19 @@
         <v>20710</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13353</v>
+        <v>13488</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29273</v>
+        <v>29279</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1396494382693831</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09004235950983512</v>
+        <v>0.09094617872253911</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1973847449906439</v>
+        <v>0.1974311286456183</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1874,19 +1874,19 @@
         <v>13647</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8744</v>
+        <v>8862</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20414</v>
+        <v>20971</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1134453567884895</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07268287675005725</v>
+        <v>0.07366387531124388</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1696898549575445</v>
+        <v>0.1743266359056957</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -1895,19 +1895,19 @@
         <v>34358</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24861</v>
+        <v>25925</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>46237</v>
+        <v>45689</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1279133449820067</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09255731333848109</v>
+        <v>0.09652030629715941</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1721415741502195</v>
+        <v>0.1700993633158459</v>
       </c>
     </row>
     <row r="21">
@@ -1924,19 +1924,19 @@
         <v>16110</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10371</v>
+        <v>9545</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25224</v>
+        <v>24182</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1086293159561467</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06992945121683779</v>
+        <v>0.06436106476203983</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1700836916333498</v>
+        <v>0.1630603385770909</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -1945,19 +1945,19 @@
         <v>12328</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7330</v>
+        <v>7578</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18224</v>
+        <v>18381</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1024781266186739</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06093239533083148</v>
+        <v>0.06299152236427473</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1514908709364035</v>
+        <v>0.1527926230329119</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>36</v>
@@ -1966,19 +1966,19 @@
         <v>28438</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20948</v>
+        <v>19819</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>38849</v>
+        <v>38589</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1058743660470826</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07798981799436415</v>
+        <v>0.07378427991751942</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1446364556932057</v>
+        <v>0.1436681491668436</v>
       </c>
     </row>
     <row r="22">
@@ -1995,19 +1995,19 @@
         <v>13684</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7984</v>
+        <v>7850</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21874</v>
+        <v>20781</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09227315107987719</v>
+        <v>0.09227315107987717</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05383299203709984</v>
+        <v>0.05293082054964746</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1474976204960469</v>
+        <v>0.1401263921941232</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2016,19 +2016,19 @@
         <v>13548</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8817</v>
+        <v>8289</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20273</v>
+        <v>19852</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1126207825275189</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07329334429374683</v>
+        <v>0.06890273910605092</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1685203813576179</v>
+        <v>0.1650191302074944</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -2037,19 +2037,19 @@
         <v>27232</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19502</v>
+        <v>20167</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36964</v>
+        <v>36834</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1013863001525052</v>
+        <v>0.1013863001525053</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07260704211826467</v>
+        <v>0.07508071926498222</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1376175074341957</v>
+        <v>0.1371329905547802</v>
       </c>
     </row>
     <row r="23">
@@ -2066,19 +2066,19 @@
         <v>6949</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2729</v>
+        <v>3198</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13569</v>
+        <v>14328</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04685780535656588</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01840353925312909</v>
+        <v>0.02156580558096649</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09149528580326166</v>
+        <v>0.09661318594934701</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2087,19 +2087,19 @@
         <v>2647</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6835</v>
+        <v>6329</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.0219996193389621</v>
+        <v>0.02199961933896211</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005610999474085229</v>
+        <v>0.005666895466690741</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05681627455732094</v>
+        <v>0.0526123779754207</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -2108,19 +2108,19 @@
         <v>9596</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5008</v>
+        <v>4684</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>16320</v>
+        <v>16257</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.03572450193319383</v>
+        <v>0.03572450193319384</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01864630202205204</v>
+        <v>0.0174382661686257</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06076015100540384</v>
+        <v>0.06052322587507264</v>
       </c>
     </row>
     <row r="24">
@@ -2212,19 +2212,19 @@
         <v>116065</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>96490</v>
+        <v>93195</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>135472</v>
+        <v>135578</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5536508337483337</v>
+        <v>0.5536508337483338</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4602741510623095</v>
+        <v>0.4445551038386846</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6462234971158244</v>
+        <v>0.6467285982186117</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>96</v>
@@ -2233,19 +2233,19 @@
         <v>90864</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>77484</v>
+        <v>76326</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>103814</v>
+        <v>105117</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5139813543207081</v>
+        <v>0.5139813543207082</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4382927060253187</v>
+        <v>0.4317468299142831</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5872313597760693</v>
+        <v>0.5946008200246401</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>159</v>
@@ -2254,19 +2254,19 @@
         <v>206929</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>180667</v>
+        <v>183084</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>230269</v>
+        <v>232315</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5355023151603187</v>
+        <v>0.5355023151603185</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4675386280261783</v>
+        <v>0.4737947003653745</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5959019507999535</v>
+        <v>0.6011963067977888</v>
       </c>
     </row>
     <row r="26">
@@ -2283,19 +2283,19 @@
         <v>31534</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20346</v>
+        <v>21184</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48223</v>
+        <v>48875</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1504216384681523</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0970527567160155</v>
+        <v>0.1010493254060013</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2300333932928969</v>
+        <v>0.23314197359851</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -2304,19 +2304,19 @@
         <v>30826</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>21840</v>
+        <v>22269</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>41433</v>
+        <v>41258</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1743674756122955</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1235397535173474</v>
+        <v>0.1259672923661655</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2343689847110783</v>
+        <v>0.2333792263442163</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>62</v>
@@ -2325,19 +2325,19 @@
         <v>62359</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>48760</v>
+        <v>47368</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>79687</v>
+        <v>79406</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1613766970367663</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1261840872496584</v>
+        <v>0.1225825597532535</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.206216884182618</v>
+        <v>0.2054905910754982</v>
       </c>
     </row>
     <row r="27">
@@ -2354,19 +2354,19 @@
         <v>12579</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4545</v>
+        <v>3977</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>29332</v>
+        <v>30056</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06000415993660467</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02168220505620453</v>
+        <v>0.01897002881544398</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1399188436993534</v>
+        <v>0.1433722410470351</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>12</v>
@@ -2375,19 +2375,19 @@
         <v>9233</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4973</v>
+        <v>5141</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>15464</v>
+        <v>15529</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05222843239516303</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02812821377733441</v>
+        <v>0.02907959079393969</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08747615783825506</v>
+        <v>0.08784316193330448</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>19</v>
@@ -2396,19 +2396,19 @@
         <v>21812</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>11885</v>
+        <v>12580</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>38448</v>
+        <v>37741</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.05644681716686514</v>
+        <v>0.05644681716686513</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03075571727696772</v>
+        <v>0.03255616936015229</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09949726414970547</v>
+        <v>0.09766739220683542</v>
       </c>
     </row>
     <row r="28">
@@ -2425,19 +2425,19 @@
         <v>17244</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8941</v>
+        <v>8583</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>30477</v>
+        <v>31025</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08225834775101096</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0426524366056153</v>
+        <v>0.04094093136735259</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1453812277540689</v>
+        <v>0.1479936943901319</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>18</v>
@@ -2446,19 +2446,19 @@
         <v>15624</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9385</v>
+        <v>9839</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25056</v>
+        <v>24857</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.0883803543636696</v>
+        <v>0.08838035436366962</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05308786950441907</v>
+        <v>0.05565316879162233</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1417332870457584</v>
+        <v>0.1406054397562404</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -2467,19 +2467,19 @@
         <v>32869</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>20982</v>
+        <v>22111</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>48084</v>
+        <v>47670</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08505912437850596</v>
+        <v>0.08505912437850595</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05429735075164401</v>
+        <v>0.05722019325504069</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1244350072809812</v>
+        <v>0.1233639341342892</v>
       </c>
     </row>
     <row r="29">
@@ -2496,19 +2496,19 @@
         <v>17461</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7998</v>
+        <v>8399</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>33557</v>
+        <v>34324</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08329235566714759</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03815160755245325</v>
+        <v>0.04006556453510061</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1600704166404593</v>
+        <v>0.1637298079475359</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -2517,19 +2517,19 @@
         <v>22934</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14240</v>
+        <v>14463</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>34851</v>
+        <v>35122</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1297301818556149</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0805482342754926</v>
+        <v>0.08181271462709735</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1971366350288416</v>
+        <v>0.1986694762943014</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>30</v>
@@ -2538,19 +2538,19 @@
         <v>40395</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26166</v>
+        <v>27520</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>59499</v>
+        <v>60641</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1045373471298163</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06771281689747859</v>
+        <v>0.07121652447114735</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1539753065812207</v>
+        <v>0.1569301864301283</v>
       </c>
     </row>
     <row r="30">
@@ -2567,19 +2567,19 @@
         <v>14753</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7305</v>
+        <v>7254</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26278</v>
+        <v>25784</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.07037266442875068</v>
+        <v>0.07037266442875069</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03484731235029138</v>
+        <v>0.03460491365412542</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1253499130563582</v>
+        <v>0.122992632519197</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2588,19 +2588,19 @@
         <v>7303</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3782</v>
+        <v>3515</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13563</v>
+        <v>13017</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04131220145254881</v>
+        <v>0.04131220145254882</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02139076852595316</v>
+        <v>0.01988064776897223</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07672141321620957</v>
+        <v>0.07363324151146813</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>20</v>
@@ -2609,19 +2609,19 @@
         <v>22056</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>12993</v>
+        <v>13290</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>34581</v>
+        <v>34441</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05707769912772771</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03362336303288373</v>
+        <v>0.03439319714336796</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08948973894055526</v>
+        <v>0.08912690071708497</v>
       </c>
     </row>
     <row r="31">
@@ -2713,19 +2713,19 @@
         <v>15427</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10180</v>
+        <v>9158</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23829</v>
+        <v>22862</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1147168832412754</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07569607718862384</v>
+        <v>0.06809991540020305</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1771948440707564</v>
+        <v>0.1700039037953346</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2734,19 +2734,19 @@
         <v>10484</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6383</v>
+        <v>6334</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17733</v>
+        <v>17229</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.08901196486745844</v>
+        <v>0.08901196486745842</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05419197260665617</v>
+        <v>0.05377489967300402</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1505589674538772</v>
+        <v>0.1462823946457401</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>37</v>
@@ -2755,19 +2755,19 @@
         <v>25911</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18302</v>
+        <v>18658</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>34609</v>
+        <v>36226</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1027151895745608</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07255295297788181</v>
+        <v>0.07396058453533901</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1371924265064392</v>
+        <v>0.143602658842191</v>
       </c>
     </row>
     <row r="33">
@@ -2784,19 +2784,19 @@
         <v>88536</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>78967</v>
+        <v>79260</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>97849</v>
+        <v>98162</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6583513420434425</v>
+        <v>0.6583513420434426</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5871970304841934</v>
+        <v>0.5893757267938941</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7276015659681554</v>
+        <v>0.7299306741223581</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>186</v>
@@ -2805,19 +2805,19 @@
         <v>91498</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>83464</v>
+        <v>83497</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>97818</v>
+        <v>97873</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.7768460558336121</v>
+        <v>0.776846055833612</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.7086298624582291</v>
+        <v>0.7089082677044871</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8305042971827532</v>
+        <v>0.8309658750658034</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>297</v>
@@ -2826,19 +2826,19 @@
         <v>180034</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>168217</v>
+        <v>166476</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>191081</v>
+        <v>191311</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.7136768340505761</v>
+        <v>0.713676834050576</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6668317074028338</v>
+        <v>0.6599286032196554</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7574680581864064</v>
+        <v>0.7583795135901911</v>
       </c>
     </row>
     <row r="34">
@@ -2855,19 +2855,19 @@
         <v>16632</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>10990</v>
+        <v>11036</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>23982</v>
+        <v>23796</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1236782261813514</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08172397759845787</v>
+        <v>0.08206652721691807</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1783300190769378</v>
+        <v>0.1769497515992966</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>17</v>
@@ -2876,19 +2876,19 @@
         <v>8877</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5109</v>
+        <v>5460</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14535</v>
+        <v>14931</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.07536664893521725</v>
+        <v>0.07536664893521722</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04337625774541606</v>
+        <v>0.04635377015043735</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1234077462117712</v>
+        <v>0.1267701834298396</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>39</v>
@@ -2897,19 +2897,19 @@
         <v>25509</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>18600</v>
+        <v>18470</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>34186</v>
+        <v>33927</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.101121424318307</v>
+        <v>0.1011214243183069</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07373408528954502</v>
+        <v>0.07321904773313147</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1355160758101535</v>
+        <v>0.1344911806259793</v>
       </c>
     </row>
     <row r="35">
@@ -2926,19 +2926,19 @@
         <v>10935</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6330</v>
+        <v>6165</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17660</v>
+        <v>18021</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08131626249549914</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04706852240715841</v>
+        <v>0.04584542938661591</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1313202050676198</v>
+        <v>0.1340006211041903</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>10</v>
@@ -2947,19 +2947,19 @@
         <v>5089</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2528</v>
+        <v>2547</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8943</v>
+        <v>9399</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04320562164575192</v>
+        <v>0.0432056216457519</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02146024892330912</v>
+        <v>0.02162159660426813</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07593168142520945</v>
+        <v>0.07980341269272052</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>23</v>
@@ -2968,19 +2968,19 @@
         <v>16024</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>9945</v>
+        <v>10594</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>23096</v>
+        <v>23675</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06352230453503564</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03942447662836367</v>
+        <v>0.04199496876207257</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09155468451967137</v>
+        <v>0.09384857413065785</v>
       </c>
     </row>
     <row r="36">
@@ -2997,19 +2997,19 @@
         <v>2950</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8582</v>
+        <v>8748</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02193728603843157</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005818976288909849</v>
+        <v>0.005769827264508389</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0638179906011036</v>
+        <v>0.06505144221666224</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -3018,19 +3018,19 @@
         <v>1834</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4507</v>
+        <v>4227</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01556970871796036</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003956721391753767</v>
+        <v>0.003941417411613645</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03826730274664953</v>
+        <v>0.03588783307382294</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7</v>
@@ -3039,19 +3039,19 @@
         <v>4784</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2066</v>
+        <v>2262</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>9695</v>
+        <v>11185</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01896424752152043</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.008191762294070724</v>
+        <v>0.008966313248176183</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03843175304214528</v>
+        <v>0.04433983177604897</v>
       </c>
     </row>
     <row r="37">
@@ -3190,19 +3190,19 @@
         <v>49937</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>39342</v>
+        <v>39251</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>60750</v>
+        <v>60243</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3732711012097094</v>
+        <v>0.3732711012097095</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.294077799082451</v>
+        <v>0.2933974693520418</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4540960645324592</v>
+        <v>0.4503104901897922</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>53</v>
@@ -3211,19 +3211,19 @@
         <v>38267</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>30617</v>
+        <v>31194</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>46009</v>
+        <v>45869</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.4427124094089461</v>
+        <v>0.4427124094089462</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3542154753556513</v>
+        <v>0.3608872929858621</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.5322835649414793</v>
+        <v>0.5306690276611975</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>105</v>
@@ -3232,19 +3232,19 @@
         <v>88204</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>76671</v>
+        <v>76390</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>102395</v>
+        <v>101716</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.4005271530392707</v>
+        <v>0.4005271530392705</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3481578703178773</v>
+        <v>0.3468839296222909</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4649700191068696</v>
+        <v>0.4618868636481217</v>
       </c>
     </row>
     <row r="40">
@@ -3261,19 +3261,19 @@
         <v>20051</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>13456</v>
+        <v>13809</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>28337</v>
+        <v>28084</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1498818288331693</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.100581551148103</v>
+        <v>0.1032198423921199</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2118126808351411</v>
+        <v>0.2099272856354449</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>25</v>
@@ -3282,19 +3282,19 @@
         <v>16137</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>11097</v>
+        <v>11002</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>22380</v>
+        <v>23197</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1866905880264814</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1283771217966858</v>
+        <v>0.127278018816697</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2589134829791017</v>
+        <v>0.2683738992465919</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>50</v>
@@ -3303,19 +3303,19 @@
         <v>36188</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>27287</v>
+        <v>27824</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>46616</v>
+        <v>47118</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1643294461717749</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1239078031011946</v>
+        <v>0.1263454814451466</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2116813473213315</v>
+        <v>0.2139581512855065</v>
       </c>
     </row>
     <row r="41">
@@ -3332,19 +3332,19 @@
         <v>14594</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8551</v>
+        <v>9052</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>22398</v>
+        <v>22434</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1090858702092046</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.06391398600925689</v>
+        <v>0.06766304695328812</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1674250138418172</v>
+        <v>0.1676896786137514</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>13</v>
@@ -3353,19 +3353,19 @@
         <v>8618</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4861</v>
+        <v>4829</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>14295</v>
+        <v>14151</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.09970335288928377</v>
+        <v>0.09970335288928378</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05623653809617545</v>
+        <v>0.05586958097063624</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.165377214256164</v>
+        <v>0.1637189486162087</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>29</v>
@@ -3374,19 +3374,19 @@
         <v>23212</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>16370</v>
+        <v>16604</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>31514</v>
+        <v>33297</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1054031864436599</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07433300231053652</v>
+        <v>0.07539815912024024</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1431042855860992</v>
+        <v>0.1512011865670897</v>
       </c>
     </row>
     <row r="42">
@@ -3403,19 +3403,19 @@
         <v>23404</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>15473</v>
+        <v>16093</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>32004</v>
+        <v>33003</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1749392008818842</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1156547397363602</v>
+        <v>0.1202896389707615</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2392239612611658</v>
+        <v>0.2466911898235081</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>23</v>
@@ -3424,19 +3424,19 @@
         <v>15766</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>10477</v>
+        <v>10309</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>22349</v>
+        <v>22171</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1823988774935598</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1212056693502173</v>
+        <v>0.1192688617822285</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2585606495054957</v>
+        <v>0.2564948165376051</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>50</v>
@@ -3445,19 +3445,19 @@
         <v>39170</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>29989</v>
+        <v>30483</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>49425</v>
+        <v>51225</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1778671603001636</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1361777559384141</v>
+        <v>0.1384205949160681</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2244379365498818</v>
+        <v>0.232609977014742</v>
       </c>
     </row>
     <row r="43">
@@ -3474,19 +3474,19 @@
         <v>18648</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>12530</v>
+        <v>12247</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>27304</v>
+        <v>26654</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1393920982417984</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.09365760241531633</v>
+        <v>0.09154789604982309</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2040949415333196</v>
+        <v>0.1992354335625127</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>10</v>
@@ -3495,19 +3495,19 @@
         <v>5979</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2847</v>
+        <v>3186</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>10591</v>
+        <v>10631</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.06917296977682436</v>
+        <v>0.06917296977682438</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03293553177297066</v>
+        <v>0.03685904602331581</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1225238248177772</v>
+        <v>0.1229950328143353</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>32</v>
@@ -3516,19 +3516,19 @@
         <v>24627</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>17189</v>
+        <v>17368</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>34321</v>
+        <v>34117</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1118307481679099</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.07805259982297384</v>
+        <v>0.07886570845104403</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1558474328179127</v>
+        <v>0.1549248053903547</v>
       </c>
     </row>
     <row r="44">
@@ -3545,19 +3545,19 @@
         <v>7148</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>3634</v>
+        <v>3447</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>13416</v>
+        <v>12749</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.0534299006242341</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02716518068771879</v>
+        <v>0.02576471760894368</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.100278918297671</v>
+        <v>0.09529455499469401</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3</v>
@@ -3566,19 +3566,19 @@
         <v>1670</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>4325</v>
+        <v>4253</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01932180240490431</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.005542714852909097</v>
+        <v>0.005395203838356432</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05004042249993975</v>
+        <v>0.04920098578322656</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>12</v>
@@ -3587,19 +3587,19 @@
         <v>8818</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4631</v>
+        <v>4725</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>15294</v>
+        <v>15061</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.04004230587722107</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02102900748401052</v>
+        <v>0.02145626377073948</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.06944937641841724</v>
+        <v>0.06839042481822798</v>
       </c>
     </row>
     <row r="45">
@@ -3691,19 +3691,19 @@
         <v>196008</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>175684</v>
+        <v>174471</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>218337</v>
+        <v>218307</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.5125274035574615</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.45938135052012</v>
+        <v>0.4562099310117895</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.570913806866719</v>
+        <v>0.5708340157391827</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>247</v>
@@ -3712,19 +3712,19 @@
         <v>205745</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>187116</v>
+        <v>188261</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>221533</v>
+        <v>221888</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.5753498759622884</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5232564051755494</v>
+        <v>0.526459709466232</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.6195015427951919</v>
+        <v>0.6204943850329634</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>409</v>
@@ -3733,19 +3733,19 @@
         <v>401752</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>373739</v>
+        <v>373119</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>430621</v>
+        <v>429061</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.5428844534320776</v>
+        <v>0.5428844534320774</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.5050305024379872</v>
+        <v>0.5041917271212352</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.5818941408162136</v>
+        <v>0.5797858735148569</v>
       </c>
     </row>
     <row r="47">
@@ -3762,19 +3762,19 @@
         <v>95187</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>76652</v>
+        <v>75372</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>114656</v>
+        <v>115318</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.248897161578912</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2004301400707455</v>
+        <v>0.1970849354531244</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2998054216025987</v>
+        <v>0.3015366167509887</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>82</v>
@@ -3783,19 +3783,19 @@
         <v>65052</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>52130</v>
+        <v>52987</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>80050</v>
+        <v>79543</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1819136175142111</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1457776600343256</v>
+        <v>0.1481737431904606</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2238533591009773</v>
+        <v>0.2224352721024626</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>156</v>
@@ -3804,19 +3804,19 @@
         <v>160239</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>137823</v>
+        <v>139654</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>184779</v>
+        <v>190497</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2165294003286492</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1862388565220441</v>
+        <v>0.1887133444581625</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2496899131688647</v>
+        <v>0.2574163608634745</v>
       </c>
     </row>
     <row r="48">
@@ -3833,19 +3833,19 @@
         <v>24443</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>15179</v>
+        <v>14753</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>37599</v>
+        <v>38859</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.06391318495952883</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.03968973598385082</v>
+        <v>0.03857727995687941</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.09831600374326575</v>
+        <v>0.1016092471049553</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>25</v>
@@ -3854,19 +3854,19 @@
         <v>18588</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>12226</v>
+        <v>12867</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>26055</v>
+        <v>26954</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.05198028678814425</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.03418886976493235</v>
+        <v>0.03598246459556599</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.07286121824845698</v>
+        <v>0.07537376180634323</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>43</v>
@@ -3875,19 +3875,19 @@
         <v>43031</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>31192</v>
+        <v>31283</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>58934</v>
+        <v>59835</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.0581469746995582</v>
+        <v>0.05814697469955819</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.04214934813274725</v>
+        <v>0.04227224145840672</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.07963697786211132</v>
+        <v>0.08085442328657161</v>
       </c>
     </row>
     <row r="49">
@@ -3904,19 +3904,19 @@
         <v>31219</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>19884</v>
+        <v>20942</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>44407</v>
+        <v>43573</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.08163090288851303</v>
+        <v>0.08163090288851305</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.05199233502136411</v>
+        <v>0.05475884577423899</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1161170410785189</v>
+        <v>0.1139368032381633</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>35</v>
@@ -3925,19 +3925,19 @@
         <v>27661</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>20164</v>
+        <v>19426</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>38675</v>
+        <v>37988</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.07735311536377476</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.05638797458610807</v>
+        <v>0.05432384959506946</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1081526925234151</v>
+        <v>0.1062320174503242</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>60</v>
@@ -3946,19 +3946,19 @@
         <v>58880</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>45560</v>
+        <v>45402</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>75997</v>
+        <v>75667</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.07956379211954065</v>
+        <v>0.07956379211954062</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.06156523304131188</v>
+        <v>0.06135081014681071</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1026944627972092</v>
+        <v>0.1022482774791077</v>
       </c>
     </row>
     <row r="50">
@@ -3975,19 +3975,19 @@
         <v>18870</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>11552</v>
+        <v>11020</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>29555</v>
+        <v>30010</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.04934229969731894</v>
+        <v>0.04934229969731895</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03020643616686135</v>
+        <v>0.02881640433131036</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.07728007747488075</v>
+        <v>0.0784721470738675</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>34</v>
@@ -3996,19 +3996,19 @@
         <v>26620</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>19204</v>
+        <v>18404</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>36547</v>
+        <v>35981</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.07444016989036915</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.05370293339904799</v>
+        <v>0.0514648065260705</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1022020299907765</v>
+        <v>0.1006176634762437</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>50</v>
@@ -4017,19 +4017,19 @@
         <v>45490</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>34053</v>
+        <v>32993</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>60504</v>
+        <v>60555</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.06147008244816981</v>
+        <v>0.06147008244816979</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.04601566789741828</v>
+        <v>0.04458268347629388</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.0817587299390292</v>
+        <v>0.08182767744890941</v>
       </c>
     </row>
     <row r="51">
@@ -4046,19 +4046,19 @@
         <v>16708</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>8875</v>
+        <v>9129</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>28038</v>
+        <v>28052</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.04368904731826573</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.02320643049221495</v>
+        <v>0.02387178275883811</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.07331334143213376</v>
+        <v>0.0733508476926162</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>19</v>
@@ -4067,19 +4067,19 @@
         <v>13933</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>9124</v>
+        <v>8571</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>21793</v>
+        <v>21673</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.03896293448121226</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.02551426785926915</v>
+        <v>0.02396855354535922</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.06094163494277718</v>
+        <v>0.06060689443703685</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>32</v>
@@ -4088,19 +4088,19 @@
         <v>30641</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>21327</v>
+        <v>20107</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>43222</v>
+        <v>43115</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.04140529697200474</v>
+        <v>0.04140529697200473</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.02881834991457294</v>
+        <v>0.02716990440162855</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.05840491522696982</v>
+        <v>0.05826150426195241</v>
       </c>
     </row>
     <row r="52">
@@ -4192,19 +4192,19 @@
         <v>236349</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>210474</v>
+        <v>212189</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>257625</v>
+        <v>258770</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.5264379735931406</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.4688057357712785</v>
+        <v>0.4726251820160449</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.5738290956667186</v>
+        <v>0.5763790497903437</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>161</v>
@@ -4213,19 +4213,19 @@
         <v>135905</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>120684</v>
+        <v>119849</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>152483</v>
+        <v>152196</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.4357098047958252</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.3869115540399028</v>
+        <v>0.3842321116137296</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.4888573523172031</v>
+        <v>0.487938135058796</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>355</v>
@@ -4234,19 +4234,19 @@
         <v>372254</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>344842</v>
+        <v>339550</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>399262</v>
+        <v>398311</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.489244382462</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.4532180826743788</v>
+        <v>0.4462621518675435</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.5247404309105402</v>
+        <v>0.5234901886603024</v>
       </c>
     </row>
     <row r="54">
@@ -4263,19 +4263,19 @@
         <v>132559</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>110533</v>
+        <v>113181</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>153201</v>
+        <v>154792</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.2952581976930721</v>
+        <v>0.295258197693072</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2461982886514273</v>
+        <v>0.2520966423482386</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3412370515993621</v>
+        <v>0.3447811877584527</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>111</v>
@@ -4284,19 +4284,19 @@
         <v>92080</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>78492</v>
+        <v>77328</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>105796</v>
+        <v>107110</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2952072159643562</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2516448741921305</v>
+        <v>0.2479105985847134</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3391788337042467</v>
+        <v>0.3433912486557804</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>227</v>
@@ -4305,19 +4305,19 @@
         <v>224639</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>201229</v>
+        <v>201009</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>251870</v>
+        <v>252046</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2952372979703272</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2644709401974642</v>
+        <v>0.26418149802023</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3310273674089559</v>
+        <v>0.3312581806044532</v>
       </c>
     </row>
     <row r="55">
@@ -4334,19 +4334,19 @@
         <v>35785</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>24411</v>
+        <v>25318</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>49471</v>
+        <v>49847</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.07970664839173817</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.05437340374311865</v>
+        <v>0.05639213651684225</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1101910745335419</v>
+        <v>0.111027821901878</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>55</v>
@@ -4355,19 +4355,19 @@
         <v>45274</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>34643</v>
+        <v>35076</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>57798</v>
+        <v>57679</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1451479118659537</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1110659201698025</v>
+        <v>0.1124541131661269</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1853006666846657</v>
+        <v>0.1849162020875631</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>86</v>
@@ -4376,19 +4376,19 @@
         <v>81059</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>66376</v>
+        <v>64978</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>99941</v>
+        <v>100968</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1065339902088392</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.08723658434395051</v>
+        <v>0.08539931518764726</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1313496405442443</v>
+        <v>0.1326998383587374</v>
       </c>
     </row>
     <row r="56">
@@ -4405,19 +4405,19 @@
         <v>21588</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>12908</v>
+        <v>12980</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>32320</v>
+        <v>32009</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.04808376370631581</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.028750874133885</v>
+        <v>0.02891230354202118</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.07198994287824532</v>
+        <v>0.07129686424631321</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>23</v>
@@ -4426,19 +4426,19 @@
         <v>18247</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>11628</v>
+        <v>11276</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>26589</v>
+        <v>26353</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.05849886591916627</v>
+        <v>0.05849886591916629</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.03728065822749133</v>
+        <v>0.03615012784074483</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.08524359341011978</v>
+        <v>0.0844863374140561</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>42</v>
@@ -4447,19 +4447,19 @@
         <v>39834</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>29378</v>
+        <v>28802</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>53606</v>
+        <v>52805</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.05235338645335025</v>
+        <v>0.05235338645335026</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.03861027347238776</v>
+        <v>0.03785315999685185</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.07045280735663893</v>
+        <v>0.06940056701647887</v>
       </c>
     </row>
     <row r="57">
@@ -4476,19 +4476,19 @@
         <v>14992</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>8439</v>
+        <v>8424</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>25049</v>
+        <v>25566</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.03339364101412946</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.0187977436672576</v>
+        <v>0.01876342678950943</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.05579307857519332</v>
+        <v>0.05694520398499821</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>17</v>
@@ -4497,19 +4497,19 @@
         <v>14229</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>8262</v>
+        <v>8512</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>21869</v>
+        <v>22509</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.04561794374166941</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.02648768643643824</v>
+        <v>0.02728885660815573</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.07011313713606115</v>
+        <v>0.07216385763133881</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>30</v>
@@ -4518,19 +4518,19 @@
         <v>29221</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>20209</v>
+        <v>20133</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>41083</v>
+        <v>42775</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.03840493710373886</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.02655963264537457</v>
+        <v>0.02646024561544746</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.05399376441396596</v>
+        <v>0.05621769093015995</v>
       </c>
     </row>
     <row r="58">
@@ -4547,19 +4547,19 @@
         <v>7686</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>2432</v>
+        <v>2958</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>16885</v>
+        <v>16777</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.01711977560160394</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.005417801015235518</v>
+        <v>0.006588373355497306</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.03760964850409708</v>
+        <v>0.03736948398195387</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>7</v>
@@ -4568,19 +4568,19 @@
         <v>6182</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>2770</v>
+        <v>2503</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>12565</v>
+        <v>12842</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.01981825771302916</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.008879075146088333</v>
+        <v>0.008024688002671617</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.04028271609867796</v>
+        <v>0.04117250388879717</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>13</v>
@@ -4589,19 +4589,19 @@
         <v>13868</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>7650</v>
+        <v>7665</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>23311</v>
+        <v>24709</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.01822600580174457</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.01005437352570842</v>
+        <v>0.01007399372334217</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.03063679090352766</v>
+        <v>0.03247395838118936</v>
       </c>
     </row>
     <row r="59">
@@ -4693,19 +4693,19 @@
         <v>963027</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>916366</v>
+        <v>909052</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>1009484</v>
+        <v>1010553</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.5040956535227601</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.4796712257427957</v>
+        <v>0.4758426703880251</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.5284136707433497</v>
+        <v>0.5289731708604972</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>954</v>
@@ -4714,19 +4714,19 @@
         <v>742041</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>707033</v>
+        <v>707011</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>779216</v>
+        <v>774737</v>
       </c>
       <c r="N60" s="6" t="n">
-        <v>0.4962006987253156</v>
+        <v>0.4962006987253154</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.4727906844469485</v>
+        <v>0.4727759644728386</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.5210593655834893</v>
+        <v>0.5180643927727936</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>1762</v>
@@ -4735,19 +4735,19 @@
         <v>1705069</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>1649174</v>
+        <v>1650685</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>1770719</v>
+        <v>1769419</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.500629124798544</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.4842176877585278</v>
+        <v>0.4846615034891938</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.5199050039415082</v>
+        <v>0.5195233059754014</v>
       </c>
     </row>
     <row r="61">
@@ -4764,19 +4764,19 @@
         <v>445542</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>405460</v>
+        <v>408852</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>488588</v>
+        <v>487841</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.2332184729399282</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.2122376558429965</v>
+        <v>0.2140130728700111</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.255751212603765</v>
+        <v>0.2553600692481565</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>513</v>
@@ -4785,19 +4785,19 @@
         <v>349299</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>321759</v>
+        <v>321395</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>378691</v>
+        <v>375672</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.2335750278567334</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.2151593161572646</v>
+        <v>0.2149156838081494</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.2532292683660747</v>
+        <v>0.2512106548546201</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>926</v>
@@ -4806,19 +4806,19 @@
         <v>794841</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>743897</v>
+        <v>747775</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>843044</v>
+        <v>840235</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.2333750296134719</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.2184173495254148</v>
+        <v>0.2195559980254782</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.247528001723175</v>
+        <v>0.2467032166330155</v>
       </c>
     </row>
     <row r="62">
@@ -4835,19 +4835,19 @@
         <v>163774</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>136982</v>
+        <v>137492</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>193215</v>
+        <v>195390</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.0857272848937541</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.07170336519202186</v>
+        <v>0.07197012070842843</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.101138132818381</v>
+        <v>0.1022768030646017</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>172</v>
@@ -4856,19 +4856,19 @@
         <v>125013</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>107726</v>
+        <v>107134</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>145053</v>
+        <v>142806</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>0.08359596768817211</v>
+        <v>0.08359596768817208</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.07203615525758481</v>
+        <v>0.07164005304613855</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.09699614818381447</v>
+        <v>0.09549397207147182</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>311</v>
@@ -4877,19 +4877,19 @@
         <v>288787</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>254832</v>
+        <v>256274</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>322811</v>
+        <v>324793</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.0847914629032397</v>
+        <v>0.08479146290323969</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.07482192343104435</v>
+        <v>0.07524520695704283</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.09478135004708753</v>
+        <v>0.09536316402862535</v>
       </c>
     </row>
     <row r="63">
@@ -4906,19 +4906,19 @@
         <v>179338</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>154056</v>
+        <v>152752</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>210321</v>
+        <v>210436</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.09387436973368526</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.0806404315556556</v>
+        <v>0.0799580721427669</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.1100925077338486</v>
+        <v>0.1101526392913961</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>181</v>
@@ -4927,19 +4927,19 @@
         <v>135273</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>115115</v>
+        <v>118439</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>156172</v>
+        <v>157443</v>
       </c>
       <c r="N63" s="6" t="n">
-        <v>0.09045654367511553</v>
+        <v>0.09045654367511549</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.07697698318763636</v>
+        <v>0.07919997069339391</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.1044317494384524</v>
+        <v>0.1052816036189523</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>331</v>
@@ -4948,19 +4948,19 @@
         <v>314611</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>282346</v>
+        <v>281722</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>352018</v>
+        <v>352399</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.09237366548516431</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.08290018144037384</v>
+        <v>0.08271710819851073</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.1033568081031009</v>
+        <v>0.1034688158372964</v>
       </c>
     </row>
     <row r="64">
@@ -4977,19 +4977,19 @@
         <v>98896</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>77925</v>
+        <v>79004</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>123333</v>
+        <v>122853</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.05176693755538068</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.04078973343101534</v>
+        <v>0.04135436363417578</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.06455855894140411</v>
+        <v>0.06430746283564126</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>128</v>
@@ -4998,19 +4998,19 @@
         <v>104332</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>86786</v>
+        <v>87048</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>125675</v>
+        <v>127374</v>
       </c>
       <c r="N64" s="6" t="n">
-        <v>0.0697666795585159</v>
+        <v>0.06976667955851588</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.05803382097527974</v>
+        <v>0.05820883798956682</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.08403851307155895</v>
+        <v>0.08517458592317774</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>215</v>
@@ -5019,19 +5019,19 @@
         <v>203228</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>176548</v>
+        <v>177161</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>232707</v>
+        <v>234579</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.05967029156857175</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.05183657154990998</v>
+        <v>0.0520165215758899</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.06832554141816896</v>
+        <v>0.06887535446463212</v>
       </c>
     </row>
     <row r="65">
@@ -5048,19 +5048,19 @@
         <v>59829</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>42040</v>
+        <v>43376</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>78166</v>
+        <v>78995</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>0.03131728135449175</v>
+        <v>0.03131728135449174</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.02200574052828542</v>
+        <v>0.02270510734964667</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.04091574954096647</v>
+        <v>0.04134968635958271</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>52</v>
@@ -5069,19 +5069,19 @@
         <v>39487</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>29367</v>
+        <v>29915</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>50301</v>
+        <v>51416</v>
       </c>
       <c r="N65" s="6" t="n">
-        <v>0.02640508249614757</v>
+        <v>0.02640508249614756</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.01963764478452973</v>
+        <v>0.02000407232269921</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.03363582708546796</v>
+        <v>0.03438139933823547</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>102</v>
@@ -5090,19 +5090,19 @@
         <v>99316</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>82322</v>
+        <v>81871</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>123260</v>
+        <v>122029</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.02916042563100833</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.02417068805417191</v>
+        <v>0.02403829536813512</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.03619079295707198</v>
+        <v>0.03582915500423801</v>
       </c>
     </row>
     <row r="66">
